--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -208,6 +208,15 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir6392_31650}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 79106bd1747286a03322bc96a9ab5fd6
 *** Element info: {Using=xpath, value=//*[@id="soft-launch-popup"]/p[3]/button}</t>
+  </si>
+  <si>
+    <t>OpenBrowser: Chrome</t>
+  </si>
+  <si>
+    <t>GetURL: https://www.citymarketnorwalk.com/</t>
+  </si>
+  <si>
+    <t>Click: City Marketplace</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>47</v>
@@ -971,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>47</v>
@@ -1012,7 +1021,7 @@
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>47</v>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_OpenBrowser" r:id="rId1" sheetId="2"/>
-    <sheet name="TC_OpenBrowser" r:id="rId2" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
-    <sheet name="Sheet1" r:id="rId4" sheetId="3"/>
+    <sheet name="Scenario_OpenBrowser" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_OpenBrowser" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
   <si>
     <t>Action</t>
   </si>
@@ -191,39 +191,49 @@
     <t>url verified: http://staging.aislend.com/</t>
   </si>
   <si>
-    <t>action click failed</t>
+    <t>OpenBrowser: Chrome</t>
+  </si>
+  <si>
+    <t>GetURL: https://www.citymarketnorwalk.com/</t>
+  </si>
+  <si>
+    <t>Click: City Marketplace</t>
+  </si>
+  <si>
+    <t>TC_CityMarket_04</t>
+  </si>
+  <si>
+    <t>Verify Broken Link</t>
+  </si>
+  <si>
+    <t>VerifyBrokenLink</t>
+  </si>
+  <si>
+    <t>All links should workd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action Verify BrokenLink failed: </t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="soft-launch-popup"]/p[3]/button"}
+    <t>stale element reference: element is not attached to the page document
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Command duration or timeout: 4.53 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/stale_element_reference.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir6392_31650}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 79106bd1747286a03322bc96a9ab5fd6
-*** Element info: {Using=xpath, value=//*[@id="soft-launch-popup"]/p[3]/button}</t>
-  </si>
-  <si>
-    <t>OpenBrowser: Chrome</t>
-  </si>
-  <si>
-    <t>GetURL: https://www.citymarketnorwalk.com/</t>
-  </si>
-  <si>
-    <t>Click: City Marketplace</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13396_31019}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 96d7b64f5429952609520e28d631bb79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -366,51 +376,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -437,10 +447,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -459,10 +469,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -497,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,21 +636,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -657,7 +667,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -709,14 +719,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -725,13 +735,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="46.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
-    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
+    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -839,35 +849,35 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -914,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -939,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>47</v>
@@ -951,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -980,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>47</v>
@@ -992,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="409.5" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>47</v>
@@ -1035,17 +1045,252 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="G3"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="409.5">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,21 +1299,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1413,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>39</v>
@@ -1181,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>47</v>
@@ -1193,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1455,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>36</v>
@@ -1236,210 +1481,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="G3"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="30" r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="45" r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="G3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_OpenBrowser" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_OpenBrowser" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Scenario_OpenBrowser" r:id="rId1" sheetId="2"/>
+    <sheet name="TC_OpenBrowser" r:id="rId2" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
+    <sheet name="Sheet1" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>Action</t>
   </si>
@@ -234,6 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -376,51 +377,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -447,10 +448,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -469,10 +470,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -507,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,21 +637,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -667,7 +668,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -719,14 +720,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -735,13 +736,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
-    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="46.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -849,35 +850,35 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -924,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -961,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
+    <row ht="45" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1045,17 +1046,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="H3"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="G3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1064,21 +1065,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
+    <row ht="45" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row ht="45" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="409.5">
+    <row ht="409.5" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1281,16 +1282,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="H3"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="G3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1299,21 +1300,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
+    <row ht="45" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1481,10 +1482,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="H3"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="G3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="64">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="64">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
   <si>
     <t>Action</t>
   </si>
@@ -228,6 +228,12 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13396_31019}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 96d7b64f5429952609520e28d631bb79</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>OpenBrowser: Window</t>
   </si>
 </sst>
 </file>
@@ -859,7 +865,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,16 +947,18 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>47</v>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
   <si>
     <t>Action</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>url verified: http://staging.aislend.com/</t>
-  </si>
-  <si>
-    <t>OpenBrowser: Chrome</t>
   </si>
   <si>
     <t>GetURL: https://www.citymarketnorwalk.com/</t>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>OpenBrowser: Window</t>
+  </si>
+  <si>
+    <t>VerifyBrokenLink: null</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -844,17 +847,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -947,7 +950,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -958,7 +961,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>47</v>
@@ -999,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>47</v>
@@ -1040,7 +1043,7 @@
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>47</v>
@@ -1049,6 +1052,41 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1258,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1273,16 +1311,16 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
   <si>
     <t>Action</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>OpenBrowser: Window</t>
-  </si>
-  <si>
-    <t>VerifyBrokenLink: null</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -847,17 +841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -865,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,41 +1046,6 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="30" r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
   <si>
     <t>Action</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>OpenBrowser: Window</t>
+  </si>
+  <si>
+    <t>VerifyBrokenLink: null</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -841,17 +847,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -859,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,6 +1052,41 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="67">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="67">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
     <sheet name="Sheet1" r:id="rId4" sheetId="3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
   <si>
     <t>Action</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>OpenBrowser: Window</t>
-  </si>
-  <si>
-    <t>VerifyBrokenLink: null</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -847,17 +841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -865,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,41 +1046,6 @@
         <v>48</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row ht="30" r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/lib_testcase/com.aislend.OpenBrowser.xlsx
+++ b/lib_testcase/com.aislend.OpenBrowser.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="74">
   <si>
     <t>Action</t>
   </si>
@@ -231,6 +231,64 @@
   </si>
   <si>
     <t>OpenBrowser: Window</t>
+  </si>
+  <si>
+    <t>https://www.citymarketnorwalk.com/ URL not Opened</t>
+  </si>
+  <si>
+    <t>java.net.SocketException: Connection reset
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:38620 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:37192 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:5778 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:31404 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=70.0.3538.77)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 38 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12568_23884}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=70.0.3538.77, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ec0035e70ee7f1fd77b56d5f9b2f0970</t>
+  </si>
+  <si>
+    <t>element not interactable
+  (Session info: chrome=70.0.3538.77)
+  (Driver info: chromedriver=2.43.600210 (68dcf5eebde37173d4027fa8635e332711d2874a),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{mobileEmulationEnabled=false, hasTouchScreen=false, platform=XP, acceptSslCerts=false, goog:chromeOptions={debuggerAddress=localhost:50638}, acceptInsecureCerts=false, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=, applicationCacheEnabled=false, rotatable=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.43.600210 (68dcf5eebde37173d4027fa8635e332711d2874a), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1604_31369}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, version=70.0.3538.77, browserConnectionEnabled=false, nativeEvents=true, locationContextEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 2086fb53c05a04a26b56b527c15c9729</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1095,13 @@
         <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>13</v>
